--- a/data/trans_camb/P43C-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P43C-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P43C-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P43C-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -647,32 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,29</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,76</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,71</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,29</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,76</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,71</t>
         </is>
       </c>
     </row>
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,38; 20,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,44; 26,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,35; 24,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,38; 20,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,44; 26,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,35; 24,15</t>
         </is>
       </c>
     </row>
@@ -753,32 +753,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,31%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,41%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,31%</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,49; 49,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,04; 63,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,35; 59,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,49; 49,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,04; 63,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,35; 59,48</t>
         </is>
       </c>
     </row>
@@ -863,32 +863,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,75</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,75</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,75</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,75</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,37</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,19; 22,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,78; 14,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,84; 8,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,19; 22,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,78; 14,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,84; 8,6</t>
         </is>
       </c>
     </row>
@@ -969,32 +969,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,2%</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,31; 51,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,81; 32,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,61; 19,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,31; 51,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,81; 32,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,61; 19,7</t>
         </is>
       </c>
     </row>
@@ -1079,32 +1079,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,78</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,32</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,78</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,32</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,68</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,38; 17,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,72; 17,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,15; 3,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,38; 17,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,72; 17,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,15; 3,72</t>
         </is>
       </c>
     </row>
@@ -1185,32 +1185,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,66%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,71%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,31%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,66%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,71%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,31%</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,21; 34,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,24; 35,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,56; 7,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,21; 34,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,24; 35,97</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,56; 7,52</t>
         </is>
       </c>
     </row>
@@ -1295,32 +1295,32 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,7</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,33</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,7</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,33</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,77</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,26; 18,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,3; 13,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,7; 11,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,26; 18,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,3; 13,65</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,7; 11,58</t>
         </is>
       </c>
     </row>
@@ -1401,32 +1401,32 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,21%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,13%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,21%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,13%</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,99; 34,65</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,49; 25,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,82; 20,97</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,99; 34,65</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,49; 25,38</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,82; 20,97</t>
         </is>
       </c>
     </row>
@@ -1511,32 +1511,32 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,05</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,05</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,27</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,32; 10,42</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,0; 13,97</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,65; 9,98</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,32; 10,42</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,0; 13,97</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,65; 9,98</t>
         </is>
       </c>
     </row>
@@ -1617,32 +1617,32 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,53%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,53%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,04%</t>
         </is>
       </c>
     </row>
@@ -1670,32 +1670,32 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,2; 18,87</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,23; 25,12</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,96; 17,6</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,2; 18,87</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,23; 25,12</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,96; 17,6</t>
         </is>
       </c>
     </row>
@@ -1727,32 +1727,32 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,29</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,13</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,29</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,13</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,11</t>
         </is>
       </c>
     </row>
@@ -1780,32 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,68; 13,54</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,75; 12,68</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,99; 5,33</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,68; 13,54</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,75; 12,68</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,99; 5,33</t>
         </is>
       </c>
     </row>
@@ -1833,32 +1833,32 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,97%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,82%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,97%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,82%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,92%</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,8; 25,81</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,21; 24,24</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,39; 9,98</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,8; 25,81</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,21; 24,24</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,39; 9,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P43C-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P43C-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -647,32 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,29</t>
+          <t>15,39</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,76</t>
+          <t>8,59</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,71</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,29</t>
+          <t>15,39</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,76</t>
+          <t>8,59</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,71</t>
+          <t>5,75</t>
         </is>
       </c>
     </row>
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 20,81</t>
+          <t>10,25; 20,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 26,51</t>
+          <t>3,35; 14,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 24,15</t>
+          <t>0,41; 10,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 20,81</t>
+          <t>10,25; 20,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 26,51</t>
+          <t>3,35; 14,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 24,15</t>
+          <t>0,41; 10,68</t>
         </is>
       </c>
     </row>
@@ -753,32 +753,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,16%</t>
+          <t>32,68%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>18,23%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>26,31%</t>
+          <t>12,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,16%</t>
+          <t>32,68%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>18,23%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>26,31%</t>
+          <t>12,2%</t>
         </is>
       </c>
     </row>
@@ -806,39 +806,39 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 49,95</t>
+          <t>21,37; 47,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 63,78</t>
+          <t>7,1; 31,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 59,48</t>
+          <t>0,79; 24,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 49,95</t>
+          <t>21,37; 47,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 63,78</t>
+          <t>7,1; 31,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 59,48</t>
+          <t>0,79; 24,11</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -863,32 +863,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,75</t>
+          <t>12,78</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,75</t>
+          <t>13,32</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,75</t>
+          <t>12,78</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,75</t>
+          <t>13,32</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>0,47</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,19; 22,44</t>
+          <t>8,38; 17,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,78; 14,31</t>
+          <t>8,72; 17,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 8,6</t>
+          <t>-3,97; 4,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,19; 22,44</t>
+          <t>8,38; 17,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,78; 14,31</t>
+          <t>8,72; 17,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 8,6</t>
+          <t>-3,97; 4,87</t>
         </is>
       </c>
     </row>
@@ -969,32 +969,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>35,75%</t>
+          <t>24,66%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>25,71%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>35,75%</t>
+          <t>24,66%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>25,71%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>0,9%</t>
         </is>
       </c>
     </row>
@@ -1022,39 +1022,39 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,31; 51,19</t>
+          <t>15,21; 34,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,81; 32,63</t>
+          <t>16,24; 35,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 19,7</t>
+          <t>-7,38; 9,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,31; 51,19</t>
+          <t>15,21; 34,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,81; 32,63</t>
+          <t>16,24; 35,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 19,7</t>
+          <t>-7,38; 9,81</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1079,32 +1079,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,78</t>
+          <t>13,7</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>13,32</t>
+          <t>8,33</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-7,75</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>12,78</t>
+          <t>13,7</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>13,32</t>
+          <t>8,33</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-7,75</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,38; 17,1</t>
+          <t>8,26; 18,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,72; 17,62</t>
+          <t>3,3; 13,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 3,72</t>
+          <t>-33,94; 14,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,38; 17,1</t>
+          <t>8,26; 18,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,72; 17,62</t>
+          <t>3,3; 13,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 3,72</t>
+          <t>-33,94; 14,3</t>
         </is>
       </c>
     </row>
@@ -1185,32 +1185,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>24,66%</t>
+          <t>24,21%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>25,71%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-1,31%</t>
+          <t>-13,69%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>24,66%</t>
+          <t>24,21%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>25,71%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-1,31%</t>
+          <t>-13,69%</t>
         </is>
       </c>
     </row>
@@ -1238,39 +1238,39 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,21; 34,67</t>
+          <t>13,99; 34,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,24; 35,97</t>
+          <t>5,49; 25,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 7,52</t>
+          <t>-59,25; 25,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,21; 34,67</t>
+          <t>13,99; 34,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,24; 35,97</t>
+          <t>5,49; 25,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 7,52</t>
+          <t>-59,25; 25,86</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1295,32 +1295,32 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>13,7</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,33</t>
+          <t>9,05</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>8,8</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>13,7</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>8,33</t>
+          <t>9,05</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>8,8</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,26; 18,73</t>
+          <t>1,32; 10,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,3; 13,65</t>
+          <t>5,0; 13,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-23,7; 11,58</t>
+          <t>3,49; 18,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,26; 18,73</t>
+          <t>1,32; 10,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,3; 13,65</t>
+          <t>5,0; 13,97</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-23,7; 11,58</t>
+          <t>3,49; 18,11</t>
         </is>
       </c>
     </row>
@@ -1401,32 +1401,32 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>24,21%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>14,72%</t>
+          <t>15,53%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-3,13%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>24,21%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>14,72%</t>
+          <t>15,53%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-3,13%</t>
+          <t>15,11%</t>
         </is>
       </c>
     </row>
@@ -1454,39 +1454,39 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13,99; 34,65</t>
+          <t>2,2; 18,87</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,49; 25,38</t>
+          <t>8,23; 25,12</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-42,82; 20,97</t>
+          <t>5,8; 31,9</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>13,99; 34,65</t>
+          <t>2,2; 18,87</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,49; 25,38</t>
+          <t>8,23; 25,12</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-42,82; 20,97</t>
+          <t>5,8; 31,9</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1511,32 +1511,32 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>5,21</t>
+          <t>11,29</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>9,05</t>
+          <t>10,13</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>5,27</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>5,21</t>
+          <t>11,29</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>9,05</t>
+          <t>10,13</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>5,27</t>
+          <t>2,16</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,32; 10,42</t>
+          <t>8,68; 13,54</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,0; 13,97</t>
+          <t>7,75; 12,68</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,65; 9,98</t>
+          <t>-11,25; 7,48</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,32; 10,42</t>
+          <t>8,68; 13,54</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>5,0; 13,97</t>
+          <t>7,75; 12,68</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,65; 9,98</t>
+          <t>-11,25; 7,48</t>
         </is>
       </c>
     </row>
@@ -1617,32 +1617,32 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>20,97%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>18,82%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>20,97%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>18,82%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>4,01%</t>
         </is>
       </c>
     </row>
@@ -1670,260 +1670,44 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2,2; 18,87</t>
+          <t>15,8; 25,81</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>8,23; 25,12</t>
+          <t>14,21; 24,24</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,96; 17,6</t>
+          <t>-20,31; 13,99</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>2,2; 18,87</t>
+          <t>15,8; 25,81</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>8,23; 25,12</t>
+          <t>14,21; 24,24</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>0,96; 17,6</t>
+          <t>-20,31; 13,99</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>11,29</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>10,13</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>2,11</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>11,29</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>10,13</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>2,11</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>8,68; 13,54</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>7,75; 12,68</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-4,99; 5,33</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>8,68; 13,54</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>7,75; 12,68</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-4,99; 5,33</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>20,97%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>18,82%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>3,92%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>20,97%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>18,82%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>3,92%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>15,8; 25,81</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>14,21; 24,24</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-9,39; 9,98</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>15,8; 25,81</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>14,21; 24,24</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-9,39; 9,98</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P43C-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P43C-Habitat-trans_camb.xlsx
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,25; 20,7</t>
+          <t>9,69; 20,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,35; 14,07</t>
+          <t>2,92; 13,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 10,68</t>
+          <t>0,61; 10,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,25; 20,7</t>
+          <t>9,69; 20,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,35; 14,07</t>
+          <t>2,92; 13,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 10,68</t>
+          <t>0,61; 10,9</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,37; 47,14</t>
+          <t>19,92; 46,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,1; 31,93</t>
+          <t>5,8; 30,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 24,11</t>
+          <t>1,34; 24,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,37; 47,14</t>
+          <t>19,92; 46,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,1; 31,93</t>
+          <t>5,8; 30,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 24,11</t>
+          <t>1,34; 24,72</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,38; 17,1</t>
+          <t>8,31; 17,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,72; 17,62</t>
+          <t>9,24; 17,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 4,87</t>
+          <t>-4,25; 4,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,38; 17,1</t>
+          <t>8,31; 17,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,72; 17,62</t>
+          <t>9,24; 17,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 4,87</t>
+          <t>-4,25; 4,69</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,21; 34,67</t>
+          <t>15,23; 35,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,24; 35,97</t>
+          <t>17,01; 36,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 9,81</t>
+          <t>-7,91; 9,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,21; 34,67</t>
+          <t>15,23; 35,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,24; 35,97</t>
+          <t>17,01; 36,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 9,81</t>
+          <t>-7,91; 9,54</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,26; 18,73</t>
+          <t>8,44; 18,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,3; 13,65</t>
+          <t>2,6; 13,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-33,94; 14,3</t>
+          <t>-36,99; 12,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,26; 18,73</t>
+          <t>8,44; 18,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,3; 13,65</t>
+          <t>2,6; 13,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-33,94; 14,3</t>
+          <t>-36,99; 12,91</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,99; 34,65</t>
+          <t>14,57; 34,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,49; 25,38</t>
+          <t>4,41; 23,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-59,25; 25,86</t>
+          <t>-63,55; 23,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,99; 34,65</t>
+          <t>14,57; 34,92</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,49; 25,38</t>
+          <t>4,41; 23,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-59,25; 25,86</t>
+          <t>-63,55; 23,11</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,32; 10,42</t>
+          <t>0,98; 9,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,0; 13,97</t>
+          <t>5,09; 13,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,49; 18,11</t>
+          <t>3,81; 16,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,32; 10,42</t>
+          <t>0,98; 9,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,0; 13,97</t>
+          <t>5,09; 13,33</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,49; 18,11</t>
+          <t>3,81; 16,49</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,2; 18,87</t>
+          <t>1,63; 17,04</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,23; 25,12</t>
+          <t>8,5; 23,92</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,8; 31,9</t>
+          <t>6,31; 28,81</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,2; 18,87</t>
+          <t>1,63; 17,04</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,23; 25,12</t>
+          <t>8,5; 23,92</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,8; 31,9</t>
+          <t>6,31; 28,81</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>8,68; 13,54</t>
+          <t>8,86; 13,63</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,75; 12,68</t>
+          <t>7,95; 12,56</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-11,25; 7,48</t>
+          <t>-10,19; 7,85</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>8,68; 13,54</t>
+          <t>8,86; 13,63</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>7,75; 12,68</t>
+          <t>7,95; 12,56</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-11,25; 7,48</t>
+          <t>-10,19; 7,85</t>
         </is>
       </c>
     </row>
@@ -1670,32 +1670,32 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>15,8; 25,81</t>
+          <t>16,13; 26,12</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>14,21; 24,24</t>
+          <t>14,45; 23,75</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-20,31; 13,99</t>
+          <t>-18,72; 14,66</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>15,8; 25,81</t>
+          <t>16,13; 26,12</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>14,21; 24,24</t>
+          <t>14,45; 23,75</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-20,31; 13,99</t>
+          <t>-18,72; 14,66</t>
         </is>
       </c>
     </row>
